--- a/SuppXLS/Scen_COM_PKRSV.xlsx
+++ b/SuppXLS/Scen_COM_PKRSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasiu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AFD9CB-2BC7-4B99-90D3-B03B81CE5AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCB2DBA-AAEB-4473-B3F3-94DCA3957FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04614398-CE55-4B74-8446-7F75E54562F3}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>\I: Attribute Name</t>
   </si>
   <si>
-    <t>ELC_HV</t>
-  </si>
-  <si>
     <t xml:space="preserve">COM_PKFLX </t>
   </si>
   <si>
@@ -90,14 +87,18 @@
   </si>
   <si>
     <t>1R1MOH4</t>
+  </si>
+  <si>
+    <t>ELEC_HV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -162,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +224,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,7 +232,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -238,6 +245,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99D5436-EAA6-46C8-9BB7-3F71367C8165}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,8 +635,8 @@
       <c r="B4" s="7">
         <v>0.18</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -676,16 +684,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
       </c>
       <c r="E10">
         <v>8.2480999999999999E-2</v>
@@ -693,16 +701,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>8.7642999999999999E-2</v>
@@ -710,16 +718,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>8.7522000000000003E-2</v>
@@ -727,16 +735,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0.102677</v>
